--- a/data/hollow_data_wrangled.xlsx
+++ b/data/hollow_data_wrangled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\SamSbiodiversityCourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\SamsRepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{984BC42C-8688-4ADD-8A27-A0C6DA3D076A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0766D5-4BCF-458B-88CD-F17B819CE7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2064" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{1DB82F05-67F7-49D2-B744-96D6705EA482}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{1DB82F05-67F7-49D2-B744-96D6705EA482}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="21">
   <si>
     <t>superb nest?</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>birdPresent</t>
   </si>
   <si>
     <t>hollows</t>
@@ -451,34 +448,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF357F0-90F1-41BE-BC2B-9F4A36D3A3B4}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="33.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -501,7 +509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -524,7 +532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -547,7 +555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -570,7 +578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -593,7 +601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -616,7 +624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -639,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -662,7 +670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -685,7 +693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -708,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -731,7 +739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -754,7 +762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -777,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -800,7 +808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -823,7 +831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -846,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -869,7 +877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -892,7 +900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -915,7 +923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -938,7 +946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -961,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -984,7 +992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +1015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +1038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1053,7 +1061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1145,7 +1153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1168,7 +1176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1191,7 +1199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +1222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1237,7 +1245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1283,7 +1291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1306,7 +1314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1329,7 +1337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1375,7 +1383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1421,7 +1429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1444,7 +1452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1490,7 +1498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1536,7 +1544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1559,7 +1567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1582,7 +1590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1605,7 +1613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1628,7 +1636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1651,7 +1659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1674,7 +1682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1697,7 +1705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1720,7 +1728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1743,7 +1751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1766,7 +1774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -1789,7 +1797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -1812,7 +1820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -1835,7 +1843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -1858,7 +1866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -1881,7 +1889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1904,7 +1912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1927,7 +1935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1950,7 +1958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1973,7 +1981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1996,7 +2004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2019,7 +2027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2042,7 +2050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -2065,7 +2073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2088,7 +2096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2111,7 +2119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2134,7 +2142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2157,7 +2165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2180,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2203,7 +2211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2226,7 +2234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2249,7 +2257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2272,7 +2280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2295,7 +2303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2318,7 +2326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2341,7 +2349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2364,7 +2372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2387,7 +2395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2410,7 +2418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2433,7 +2441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2456,7 +2464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2479,7 +2487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -2502,7 +2510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -2525,7 +2533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -2548,7 +2556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -2571,7 +2579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2594,7 +2602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -2617,7 +2625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -2640,7 +2648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -2663,7 +2671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -2686,7 +2694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -2709,7 +2717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -2732,7 +2740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -2755,7 +2763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -2787,17 +2795,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1179C80-97A6-4124-BD20-C90D16044886}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2808,60 +2816,60 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
